--- a/DATA/presidents.xlsx
+++ b/DATA/presidents.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>Term</t>
   </si>
@@ -47,814 +47,931 @@
     <t>Party affiliation</t>
   </si>
   <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>1732-02-22</t>
+  </si>
+  <si>
+    <t>1799-12-14</t>
+  </si>
+  <si>
+    <t>Westmoreland County</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>1789-04-30</t>
+  </si>
+  <si>
+    <t>1797-03-04</t>
+  </si>
+  <si>
+    <t>no party</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>1735-10-30</t>
+  </si>
+  <si>
+    <t>1826-07-04</t>
+  </si>
+  <si>
+    <t>Braintree, Norfolk</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>1801-03-04</t>
+  </si>
+  <si>
+    <t>Federalist</t>
+  </si>
+  <si>
+    <t>JEFFERSON</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>1743-04-13</t>
+  </si>
+  <si>
+    <t>Albermarle County</t>
+  </si>
+  <si>
+    <t>1809-03-04</t>
+  </si>
+  <si>
+    <t>Democratic - Republican</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>1751-03-16</t>
+  </si>
+  <si>
+    <t>1836-06-28</t>
+  </si>
+  <si>
+    <t>Port Conway</t>
+  </si>
+  <si>
+    <t>1817-03-04</t>
+  </si>
+  <si>
+    <t>MONROE</t>
+  </si>
+  <si>
+    <t>1758-04-28</t>
+  </si>
+  <si>
+    <t>1831-07-04</t>
+  </si>
+  <si>
+    <t>1825-03-04</t>
+  </si>
+  <si>
+    <t>John Quincy</t>
+  </si>
+  <si>
+    <t>1767-07-11</t>
+  </si>
+  <si>
+    <t>1848-02-23</t>
+  </si>
+  <si>
+    <t>1829-03-04</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>1767-03-15</t>
+  </si>
+  <si>
+    <t>1845-06-08</t>
+  </si>
+  <si>
+    <t>Waxhaw</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>1837-03-04</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>VAN BUREN</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>1782-12-05</t>
+  </si>
+  <si>
+    <t>1862-07-24</t>
+  </si>
+  <si>
+    <t>Kinderhook</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>1841-03-04</t>
+  </si>
+  <si>
+    <t>HARRISON</t>
+  </si>
+  <si>
+    <t>William Henry</t>
+  </si>
+  <si>
+    <t>1773-02-09</t>
+  </si>
+  <si>
+    <t>1841-04-04</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>Whig</t>
+  </si>
+  <si>
+    <t>TYLER</t>
+  </si>
+  <si>
+    <t>1790-03-29</t>
+  </si>
+  <si>
+    <t>1862-01-18</t>
+  </si>
+  <si>
+    <t>Charles City County</t>
+  </si>
+  <si>
+    <t>1845-03-04</t>
+  </si>
+  <si>
+    <t>POLK</t>
+  </si>
+  <si>
+    <t>James Knox</t>
+  </si>
+  <si>
+    <t>1795-11-02</t>
+  </si>
+  <si>
+    <t>1849-06-15</t>
+  </si>
+  <si>
+    <t>Mecklenburg County</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>1849-03-03</t>
+  </si>
+  <si>
+    <t>TAYLOR</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>1784-11-24</t>
+  </si>
+  <si>
+    <t>1850-07-09</t>
+  </si>
+  <si>
+    <t>Orange County</t>
+  </si>
+  <si>
+    <t>1849-03-05</t>
+  </si>
+  <si>
+    <t>FILLMORE</t>
+  </si>
+  <si>
+    <t>Millard</t>
+  </si>
+  <si>
+    <t>1800-01-07</t>
+  </si>
+  <si>
+    <t>1874-03-08</t>
+  </si>
+  <si>
+    <t>Cayuga County</t>
+  </si>
+  <si>
+    <t>1853-03-04</t>
+  </si>
+  <si>
+    <t>PIERCE</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>1804-11-23</t>
+  </si>
+  <si>
+    <t>1869-10-08</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>1857-03-04</t>
+  </si>
+  <si>
+    <t>BUCHANAN</t>
+  </si>
+  <si>
+    <t>1791-04-23</t>
+  </si>
+  <si>
+    <t>1868-06-01</t>
+  </si>
+  <si>
+    <t>Cove Gap</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>1861-03-04</t>
+  </si>
+  <si>
+    <t>LINCOLN</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>1809-02-12</t>
+  </si>
+  <si>
+    <t>1865-04-15</t>
+  </si>
+  <si>
+    <t>Hodgenville, Hardin County</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>1808-12-29</t>
+  </si>
+  <si>
+    <t>1875-07-31</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>1869-03-04</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>Ulysses Simpson</t>
+  </si>
+  <si>
+    <t>1822-04-27</t>
+  </si>
+  <si>
+    <t>1885-07-23</t>
+  </si>
+  <si>
+    <t>Point Pleasant</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>1877-03-04</t>
+  </si>
+  <si>
+    <t>HAYES</t>
+  </si>
+  <si>
+    <t>Rutherford Birchard</t>
+  </si>
+  <si>
+    <t>1822-10-04</t>
+  </si>
+  <si>
+    <t>1893-01-17</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>1881-03-04</t>
+  </si>
+  <si>
+    <t>GARFIELD</t>
+  </si>
+  <si>
+    <t>James Abram</t>
+  </si>
+  <si>
+    <t>1831-11-19</t>
+  </si>
+  <si>
+    <t>1881-09-19</t>
+  </si>
+  <si>
+    <t>Orange, Cuyahoga County</t>
+  </si>
+  <si>
+    <t>ARTHUR</t>
+  </si>
+  <si>
+    <t>Chester Alan</t>
+  </si>
+  <si>
+    <t>1829-10-05</t>
+  </si>
+  <si>
+    <t>1886-11-18</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>1881-09-20</t>
+  </si>
+  <si>
+    <t>1885-03-04</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>Grover</t>
+  </si>
+  <si>
+    <t>1837-03-18</t>
+  </si>
+  <si>
+    <t>1908-06-24</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>1889-03-04</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>1833-08-20</t>
+  </si>
+  <si>
+    <t>1901-03-13</t>
+  </si>
+  <si>
+    <t>North Bend</t>
+  </si>
+  <si>
+    <t>1893-03-04</t>
+  </si>
+  <si>
+    <t>1897-03-04</t>
+  </si>
+  <si>
+    <t>MCKINLEY</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>1843-01-29</t>
+  </si>
+  <si>
+    <t>1901-09-14</t>
+  </si>
+  <si>
+    <t>Niles</t>
+  </si>
+  <si>
+    <t>ROOSEVELT</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>1858-10-27</t>
+  </si>
+  <si>
+    <t>1919-01-06</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>1909-03-04</t>
+  </si>
+  <si>
+    <t>TAFT</t>
+  </si>
+  <si>
+    <t>William Howard</t>
+  </si>
+  <si>
+    <t>1857-09-15</t>
+  </si>
+  <si>
+    <t>1930-03-08</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>1913-03-04</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>Woodrow</t>
+  </si>
+  <si>
+    <t>1856-12-28</t>
+  </si>
+  <si>
+    <t>1924-02-03</t>
+  </si>
+  <si>
+    <t>Staunton</t>
+  </si>
+  <si>
+    <t>1921-03-04</t>
+  </si>
+  <si>
+    <t>HARDING</t>
+  </si>
+  <si>
+    <t>Warren Gamaliel</t>
+  </si>
+  <si>
+    <t>1865-11-02</t>
+  </si>
+  <si>
+    <t>1923-08-02</t>
+  </si>
+  <si>
+    <t>Blooming Grove</t>
+  </si>
+  <si>
+    <t>COOLIDGE</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>1872-07-04</t>
+  </si>
+  <si>
+    <t>1933-01-05</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>1923-08-03</t>
+  </si>
+  <si>
+    <t>1929-03-04</t>
+  </si>
+  <si>
+    <t>HOOVER</t>
+  </si>
+  <si>
+    <t>Herbert Clark</t>
+  </si>
+  <si>
+    <t>1874-08-10</t>
+  </si>
+  <si>
+    <t>1964-10-20</t>
+  </si>
+  <si>
+    <t>West Branch</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>1933-03-04</t>
+  </si>
+  <si>
+    <t>Franklin Delano</t>
+  </si>
+  <si>
+    <t>1882-01-30</t>
+  </si>
+  <si>
+    <t>1945-04-12</t>
+  </si>
+  <si>
+    <t>Hyde Park</t>
+  </si>
+  <si>
+    <t>TRUMAN</t>
+  </si>
+  <si>
+    <t>Harry S.</t>
+  </si>
+  <si>
+    <t>1884-05-08</t>
+  </si>
+  <si>
+    <t>1972-12-26</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>1953-01-20</t>
+  </si>
+  <si>
+    <t>EISENHOWER</t>
+  </si>
+  <si>
+    <t>Dwight David</t>
+  </si>
+  <si>
+    <t>1890-10-14</t>
+  </si>
+  <si>
+    <t>1969-03-28</t>
+  </si>
+  <si>
+    <t>Denison</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>1961-01-20</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>John Fitzgerald</t>
+  </si>
+  <si>
+    <t>1917-05-29</t>
+  </si>
+  <si>
+    <t>1963-11-22</t>
+  </si>
+  <si>
+    <t>Brookline</t>
+  </si>
+  <si>
+    <t>Lyndon Baines</t>
+  </si>
+  <si>
+    <t>1908-08-27</t>
+  </si>
+  <si>
+    <t>1973-01-22</t>
+  </si>
+  <si>
+    <t>near Stonewall</t>
+  </si>
+  <si>
+    <t>1969-01-20</t>
+  </si>
+  <si>
+    <t>NIXON</t>
+  </si>
+  <si>
+    <t>Richard Milhous</t>
+  </si>
+  <si>
+    <t>1913-01-09</t>
+  </si>
+  <si>
+    <t>1994-04-22</t>
+  </si>
+  <si>
+    <t>Yorba Linda</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>1974-08-09</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>Gerald Rudolph</t>
+  </si>
+  <si>
+    <t>1913-07-14</t>
+  </si>
+  <si>
+    <t>2006-12-26</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>1977-01-20</t>
+  </si>
+  <si>
+    <t>CARTER</t>
+  </si>
+  <si>
+    <t>James Earl 'Jimmy'</t>
+  </si>
+  <si>
+    <t>1924-10-01</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>1981-01-20</t>
+  </si>
+  <si>
+    <t>REAGAN</t>
+  </si>
+  <si>
+    <t>Ronald Wilson</t>
+  </si>
+  <si>
+    <t>1911-02-06</t>
+  </si>
+  <si>
+    <t>2004-06-05</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>1989-01-20</t>
+  </si>
+  <si>
+    <t>BUSH</t>
+  </si>
+  <si>
+    <t>George Herbert Walker</t>
+  </si>
+  <si>
+    <t>1924-06-12</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>1993-01-20</t>
+  </si>
+  <si>
+    <t>CLINTON</t>
+  </si>
+  <si>
+    <t>William Jefferson 'Bill'</t>
+  </si>
+  <si>
+    <t>1946-08-19</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>2001-01-20</t>
+  </si>
+  <si>
+    <t>George Walker</t>
+  </si>
+  <si>
+    <t>1946-07-06</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>2009-01-20</t>
+  </si>
+  <si>
+    <t>OBAMA</t>
+  </si>
+  <si>
+    <t>Barack Hussein</t>
+  </si>
+  <si>
+    <t>1961-08-04</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>2017-01-20</t>
+  </si>
+  <si>
+    <t>TRUMP</t>
+  </si>
+  <si>
+    <t>Donald J</t>
+  </si>
+  <si>
+    <t>1946-06-14</t>
+  </si>
+  <si>
+    <t>Queens, NYC</t>
+  </si>
+  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>1732-02-22</t>
-  </si>
-  <si>
-    <t>1799-12-14</t>
-  </si>
-  <si>
-    <t>Westmoreland County</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>1789-04-30</t>
-  </si>
-  <si>
-    <t>1797-03-04</t>
-  </si>
-  <si>
-    <t>no party</t>
-  </si>
-  <si>
     <t>Adams</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>1735-10-30</t>
-  </si>
-  <si>
-    <t>1826-07-04</t>
-  </si>
-  <si>
-    <t>Braintree, Norfolk</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>1801-03-04</t>
-  </si>
-  <si>
-    <t>Federalist</t>
-  </si>
-  <si>
     <t>Jefferson</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>1743-04-13</t>
-  </si>
-  <si>
-    <t>Albermarle County</t>
-  </si>
-  <si>
-    <t>1809-03-04</t>
-  </si>
-  <si>
-    <t>Democratic - Republican</t>
-  </si>
-  <si>
     <t>Madison</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>1751-03-16</t>
-  </si>
-  <si>
-    <t>1836-06-28</t>
-  </si>
-  <si>
-    <t>Port Conway</t>
-  </si>
-  <si>
-    <t>1817-03-04</t>
-  </si>
-  <si>
     <t>Monroe</t>
   </si>
   <si>
-    <t>1758-04-28</t>
-  </si>
-  <si>
-    <t>1831-07-04</t>
-  </si>
-  <si>
-    <t>1825-03-04</t>
-  </si>
-  <si>
-    <t>John Quincy</t>
-  </si>
-  <si>
-    <t>1767-07-11</t>
-  </si>
-  <si>
-    <t>1848-02-23</t>
-  </si>
-  <si>
-    <t>1829-03-04</t>
-  </si>
-  <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>1767-03-15</t>
-  </si>
-  <si>
-    <t>1845-06-08</t>
-  </si>
-  <si>
-    <t>Waxhaw</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>1837-03-04</t>
-  </si>
-  <si>
-    <t>Democratic</t>
-  </si>
-  <si>
     <t>Van Buren</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>1782-12-05</t>
-  </si>
-  <si>
-    <t>1862-07-24</t>
-  </si>
-  <si>
-    <t>Kinderhook</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>1841-03-04</t>
-  </si>
-  <si>
     <t>Harrison</t>
   </si>
   <si>
-    <t>William Henry</t>
-  </si>
-  <si>
-    <t>1773-02-09</t>
-  </si>
-  <si>
-    <t>1841-04-04</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>Whig</t>
-  </si>
-  <si>
     <t>Tyler</t>
   </si>
   <si>
-    <t>1790-03-29</t>
-  </si>
-  <si>
-    <t>1862-01-18</t>
-  </si>
-  <si>
-    <t>Charles City County</t>
-  </si>
-  <si>
-    <t>1845-03-04</t>
-  </si>
-  <si>
     <t>Polk</t>
   </si>
   <si>
-    <t>James Knox</t>
-  </si>
-  <si>
-    <t>1795-11-02</t>
-  </si>
-  <si>
-    <t>1849-06-15</t>
-  </si>
-  <si>
-    <t>Mecklenburg County</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>1849-03-03</t>
-  </si>
-  <si>
     <t>Taylor</t>
   </si>
   <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>1784-11-24</t>
-  </si>
-  <si>
-    <t>1850-07-09</t>
-  </si>
-  <si>
-    <t>Orange County</t>
-  </si>
-  <si>
-    <t>1849-03-05</t>
-  </si>
-  <si>
     <t>Fillmore</t>
   </si>
   <si>
-    <t>Millard</t>
-  </si>
-  <si>
-    <t>1800-01-07</t>
-  </si>
-  <si>
-    <t>1874-03-08</t>
-  </si>
-  <si>
-    <t>Cayuga County</t>
-  </si>
-  <si>
-    <t>1853-03-04</t>
-  </si>
-  <si>
     <t>Pierce</t>
   </si>
   <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>1804-11-23</t>
-  </si>
-  <si>
-    <t>1869-10-08</t>
-  </si>
-  <si>
-    <t>Hillsboro</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>1857-03-04</t>
-  </si>
-  <si>
     <t>Buchanan</t>
   </si>
   <si>
-    <t>1791-04-23</t>
-  </si>
-  <si>
-    <t>1868-06-01</t>
-  </si>
-  <si>
-    <t>Cove Gap</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>1861-03-04</t>
-  </si>
-  <si>
     <t>Lincoln</t>
   </si>
   <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>1809-02-12</t>
-  </si>
-  <si>
-    <t>1865-04-15</t>
-  </si>
-  <si>
-    <t>Hodgenville, Hardin County</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Republican</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>1808-12-29</t>
-  </si>
-  <si>
-    <t>1875-07-31</t>
-  </si>
-  <si>
-    <t>Raleigh</t>
-  </si>
-  <si>
-    <t>1869-03-04</t>
-  </si>
-  <si>
     <t>Grant</t>
   </si>
   <si>
-    <t>Ulysses Simpson</t>
-  </si>
-  <si>
-    <t>1822-04-27</t>
-  </si>
-  <si>
-    <t>1885-07-23</t>
-  </si>
-  <si>
-    <t>Point Pleasant</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>1877-03-04</t>
-  </si>
-  <si>
     <t>Hayes</t>
   </si>
   <si>
-    <t>Rutherford Birchard</t>
-  </si>
-  <si>
-    <t>1822-10-04</t>
-  </si>
-  <si>
-    <t>1893-01-17</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>1881-03-04</t>
-  </si>
-  <si>
     <t>Garfield</t>
   </si>
   <si>
-    <t>James Abram</t>
-  </si>
-  <si>
-    <t>1831-11-19</t>
-  </si>
-  <si>
-    <t>1881-09-19</t>
-  </si>
-  <si>
-    <t>Orange, Cuyahoga County</t>
-  </si>
-  <si>
     <t>Arthur</t>
   </si>
   <si>
-    <t>Chester Alan</t>
-  </si>
-  <si>
-    <t>1829-10-05</t>
-  </si>
-  <si>
-    <t>1886-11-18</t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>1881-09-20</t>
-  </si>
-  <si>
-    <t>1885-03-04</t>
-  </si>
-  <si>
     <t>Cleveland</t>
   </si>
   <si>
-    <t>Grover</t>
-  </si>
-  <si>
-    <t>1837-03-18</t>
-  </si>
-  <si>
-    <t>1908-06-24</t>
-  </si>
-  <si>
-    <t>Caldwell</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>1889-03-04</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>1833-08-20</t>
-  </si>
-  <si>
-    <t>1901-03-13</t>
-  </si>
-  <si>
-    <t>North Bend</t>
-  </si>
-  <si>
-    <t>1893-03-04</t>
-  </si>
-  <si>
-    <t>1897-03-04</t>
-  </si>
-  <si>
     <t>McKinley</t>
   </si>
   <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>1843-01-29</t>
-  </si>
-  <si>
-    <t>1901-09-14</t>
-  </si>
-  <si>
-    <t>Niles</t>
-  </si>
-  <si>
     <t>Roosevelt</t>
   </si>
   <si>
-    <t>Theodore</t>
-  </si>
-  <si>
-    <t>1858-10-27</t>
-  </si>
-  <si>
-    <t>1919-01-06</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>1909-03-04</t>
-  </si>
-  <si>
     <t>Taft</t>
   </si>
   <si>
-    <t>William Howard</t>
-  </si>
-  <si>
-    <t>1857-09-15</t>
-  </si>
-  <si>
-    <t>1930-03-08</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>1913-03-04</t>
-  </si>
-  <si>
     <t>Wilson</t>
   </si>
   <si>
-    <t>Woodrow</t>
-  </si>
-  <si>
-    <t>1856-12-28</t>
-  </si>
-  <si>
-    <t>1924-02-03</t>
-  </si>
-  <si>
-    <t>Staunton</t>
-  </si>
-  <si>
-    <t>1921-03-04</t>
-  </si>
-  <si>
     <t>Harding</t>
   </si>
   <si>
-    <t>Warren Gamaliel</t>
-  </si>
-  <si>
-    <t>1865-11-02</t>
-  </si>
-  <si>
-    <t>1923-08-02</t>
-  </si>
-  <si>
-    <t>Blooming Grove</t>
-  </si>
-  <si>
     <t>Coolidge</t>
   </si>
   <si>
-    <t>Calvin</t>
-  </si>
-  <si>
-    <t>1872-07-04</t>
-  </si>
-  <si>
-    <t>1933-01-05</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>1923-08-03</t>
-  </si>
-  <si>
-    <t>1929-03-04</t>
-  </si>
-  <si>
     <t>Hoover</t>
   </si>
   <si>
-    <t>Herbert Clark</t>
-  </si>
-  <si>
-    <t>1874-08-10</t>
-  </si>
-  <si>
-    <t>1964-10-20</t>
-  </si>
-  <si>
-    <t>West Branch</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>1933-03-04</t>
-  </si>
-  <si>
-    <t>Franklin Delano</t>
-  </si>
-  <si>
-    <t>1882-01-30</t>
-  </si>
-  <si>
-    <t>1945-04-12</t>
-  </si>
-  <si>
-    <t>Hyde Park</t>
-  </si>
-  <si>
     <t>Truman</t>
   </si>
   <si>
-    <t>Harry S.</t>
-  </si>
-  <si>
-    <t>1884-05-08</t>
-  </si>
-  <si>
-    <t>1972-12-26</t>
-  </si>
-  <si>
-    <t>Lamar</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>1953-01-20</t>
-  </si>
-  <si>
     <t>Eisenhower</t>
   </si>
   <si>
-    <t>Dwight David</t>
-  </si>
-  <si>
-    <t>1890-10-14</t>
-  </si>
-  <si>
-    <t>1969-03-28</t>
-  </si>
-  <si>
-    <t>Denison</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>1961-01-20</t>
-  </si>
-  <si>
     <t>Kennedy</t>
   </si>
   <si>
-    <t>John Fitzgerald</t>
-  </si>
-  <si>
-    <t>1917-05-29</t>
-  </si>
-  <si>
-    <t>1963-11-22</t>
-  </si>
-  <si>
-    <t>Brookline</t>
-  </si>
-  <si>
-    <t>Lyndon Baines</t>
-  </si>
-  <si>
-    <t>1908-08-27</t>
-  </si>
-  <si>
-    <t>1973-01-22</t>
-  </si>
-  <si>
-    <t>near Stonewall</t>
-  </si>
-  <si>
-    <t>1969-01-20</t>
-  </si>
-  <si>
     <t>Nixon</t>
   </si>
   <si>
-    <t>Richard Milhous</t>
-  </si>
-  <si>
-    <t>1913-01-09</t>
-  </si>
-  <si>
-    <t>1994-04-22</t>
-  </si>
-  <si>
-    <t>Yorba Linda</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>1974-08-09</t>
-  </si>
-  <si>
     <t>Ford</t>
   </si>
   <si>
-    <t>Gerald Rudolph</t>
-  </si>
-  <si>
-    <t>1913-07-14</t>
-  </si>
-  <si>
-    <t>2006-12-26</t>
-  </si>
-  <si>
-    <t>Omaha</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>1977-01-20</t>
-  </si>
-  <si>
     <t>Carter</t>
   </si>
   <si>
-    <t>James Earl 'Jimmy'</t>
-  </si>
-  <si>
-    <t>1924-10-01</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Plains</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>1981-01-20</t>
-  </si>
-  <si>
     <t>Reagan</t>
   </si>
   <si>
-    <t>Ronald Wilson</t>
-  </si>
-  <si>
-    <t>1911-02-06</t>
-  </si>
-  <si>
-    <t>2004-06-05</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>1989-01-20</t>
-  </si>
-  <si>
     <t>Bush</t>
   </si>
   <si>
-    <t>George Herbert Walker</t>
-  </si>
-  <si>
-    <t>1924-06-12</t>
-  </si>
-  <si>
-    <t>Milton</t>
-  </si>
-  <si>
-    <t>1993-01-20</t>
-  </si>
-  <si>
     <t>Clinton</t>
   </si>
   <si>
-    <t>William Jefferson 'Bill'</t>
-  </si>
-  <si>
-    <t>1946-08-19</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>2001-01-20</t>
-  </si>
-  <si>
-    <t>George Walker</t>
-  </si>
-  <si>
-    <t>1946-07-06</t>
-  </si>
-  <si>
-    <t>New Haven</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>2009-01-20</t>
-  </si>
-  <si>
     <t>Obama</t>
   </si>
   <si>
-    <t>Barack Hussein</t>
-  </si>
-  <si>
-    <t>1961-08-04</t>
-  </si>
-  <si>
-    <t>Honolulu</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>2017-01-20</t>
-  </si>
-  <si>
     <t>Trump</t>
-  </si>
-  <si>
-    <t>Donald J</t>
-  </si>
-  <si>
-    <t>1946-06-14</t>
-  </si>
-  <si>
-    <t>Queens, NYC</t>
   </si>
 </sst>
 </file>
@@ -865,12 +982,15 @@
     <numFmt formatCode="mm/dd/yy" numFmtId="164"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="165"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -893,11 +1013,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1264,7 +1385,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1296,7 +1417,7 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1328,7 +1449,7 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
@@ -1360,7 +1481,7 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1392,7 +1513,7 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
@@ -1424,7 +1545,7 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -1456,7 +1577,7 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
@@ -1488,7 +1609,7 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
@@ -1520,7 +1641,7 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
@@ -1552,7 +1673,7 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
@@ -1584,7 +1705,7 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="s">
@@ -1616,7 +1737,7 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C13" t="s">
@@ -1648,7 +1769,7 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="s">
@@ -1680,7 +1801,7 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C15" t="s">
@@ -1712,7 +1833,7 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C16" t="s">
@@ -1744,7 +1865,7 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C17" t="s">
@@ -1776,7 +1897,7 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C18" t="s">
@@ -1808,7 +1929,7 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C19" t="s">
@@ -1840,7 +1961,7 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C20" t="s">
@@ -1872,7 +1993,7 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
@@ -1904,7 +2025,7 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
@@ -1936,7 +2057,7 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C23" t="s">
@@ -1968,7 +2089,7 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
@@ -2000,7 +2121,7 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C25" t="s">
@@ -2032,7 +2153,7 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C26" t="s">
@@ -2064,7 +2185,7 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C27" t="s">
@@ -2096,7 +2217,7 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C28" t="s">
@@ -2128,7 +2249,7 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C29" t="s">
@@ -2160,7 +2281,7 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C30" t="s">
@@ -2192,7 +2313,7 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C31" t="s">
@@ -2224,7 +2345,7 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C32" t="s">
@@ -2256,7 +2377,7 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C33" t="s">
@@ -2288,7 +2409,7 @@
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C34" t="s">
@@ -2320,7 +2441,7 @@
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C35" t="s">
@@ -2352,7 +2473,7 @@
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C36" t="s">
@@ -2384,7 +2505,7 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
@@ -2416,7 +2537,7 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C38" t="s">
@@ -2448,7 +2569,7 @@
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C39" t="s">
@@ -2480,7 +2601,7 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C40" t="s">
@@ -2512,7 +2633,7 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C41" t="s">
@@ -2544,7 +2665,7 @@
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C42" t="s">
@@ -2576,7 +2697,7 @@
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C43" t="s">
@@ -2608,7 +2729,7 @@
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C44" t="s">
@@ -2640,7 +2761,7 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C45" t="s">
@@ -2672,7 +2793,7 @@
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C46" t="s">
@@ -2730,7 +2851,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2738,7 +2859,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2746,7 +2867,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2754,7 +2875,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -2762,7 +2883,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -2770,7 +2891,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -2778,7 +2899,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -2786,7 +2907,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -2794,7 +2915,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2802,7 +2923,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2810,7 +2931,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -2818,7 +2939,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
@@ -2826,7 +2947,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -2834,7 +2955,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
@@ -2842,7 +2963,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2850,7 +2971,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -2858,7 +2979,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2866,7 +2987,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
         <v>118</v>
@@ -2874,7 +2995,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>124</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
         <v>125</v>
@@ -2882,7 +3003,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
         <v>131</v>
@@ -2890,7 +3011,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
         <v>136</v>
@@ -2898,7 +3019,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
         <v>144</v>
@@ -2906,7 +3027,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
         <v>150</v>
@@ -2914,7 +3035,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
         <v>144</v>
@@ -2922,7 +3043,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="C26" t="s">
         <v>157</v>
@@ -2930,7 +3051,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
         <v>162</v>
@@ -2938,7 +3059,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="C28" t="s">
         <v>168</v>
@@ -2946,7 +3067,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
         <v>174</v>
@@ -2954,7 +3075,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
         <v>180</v>
@@ -2962,7 +3083,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
         <v>185</v>
@@ -2970,7 +3091,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
         <v>192</v>
@@ -2978,7 +3099,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
         <v>198</v>
@@ -2986,7 +3107,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
         <v>203</v>
@@ -2994,7 +3115,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
         <v>210</v>
@@ -3002,7 +3123,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
         <v>217</v>
@@ -3010,7 +3131,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
         <v>221</v>
@@ -3018,7 +3139,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="C38" t="s">
         <v>227</v>
@@ -3026,7 +3147,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s">
         <v>234</v>
@@ -3034,7 +3155,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="C40" t="s">
         <v>241</v>
@@ -3042,7 +3163,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="C41" t="s">
         <v>248</v>
@@ -3050,7 +3171,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="C42" t="s">
         <v>255</v>
@@ -3058,7 +3179,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s">
         <v>260</v>
@@ -3066,7 +3187,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s">
         <v>265</v>
@@ -3074,7 +3195,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
         <v>271</v>
@@ -3082,7 +3203,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
         <v>277</v>
